--- a/phpprog/residenza ranitaria (RSA)/antincendio.xlsx
+++ b/phpprog/residenza ranitaria (RSA)/antincendio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollo\Desktop\projects\phpprog\residenza ranitaria (RSA)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EE3BB5-C26F-4BE7-8978-94D10AE5CD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4047C56-7FC7-4C92-AA81-F422E860A49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antincendio 01-A" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Antincendio 04-A" sheetId="5" r:id="rId4"/>
     <sheet name="Antincendio 05-A" sheetId="6" r:id="rId5"/>
     <sheet name="Salite" sheetId="3" r:id="rId6"/>
+    <sheet name="accessori 01-A" sheetId="7" r:id="rId7"/>
+    <sheet name="accessori 03-A" sheetId="8" r:id="rId8"/>
+    <sheet name="Accessori 04-A" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="23">
   <si>
     <t>diametro in pollici</t>
   </si>
@@ -73,13 +76,49 @@
   </si>
   <si>
     <t xml:space="preserve">lunghezza in metri </t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>GIUNTO RIDOTTO</t>
+  </si>
+  <si>
+    <t>DIMENSIONI</t>
+  </si>
+  <si>
+    <t>QUANTITÀ</t>
+  </si>
+  <si>
+    <t>GOMITI</t>
+  </si>
+  <si>
+    <t>RIDUZIONI</t>
+  </si>
+  <si>
+    <t>3" x 1"1/2</t>
+  </si>
+  <si>
+    <t>2"1/2 x 2"</t>
+  </si>
+  <si>
+    <t>3" x 2"1/2</t>
+  </si>
+  <si>
+    <t>4" x 3"</t>
+  </si>
+  <si>
+    <t>2" x 1"1/4</t>
+  </si>
+  <si>
+    <t>2"1/2 x 1"1/2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +130,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,11 +163,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,7 +582,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -561,7 +612,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -569,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -707,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1200FB-CD7A-466C-8BDD-7B954C598E97}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -761,4 +812,523 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5D538D-DF4E-4655-8CB2-0122DC391D3C}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267BAAF9-8B15-409C-BBEF-DBEE250E7F42}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB1F9EE-50EC-4E81-AD19-43DFDAAE2C90}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>